--- a/data/trans_dic/P25A_7_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_7_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente)</t>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,12 +657,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,64</t>
+          <t>0,0; 16,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,49</t>
+          <t>0,0; 25,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 11,78</t>
+          <t>2,28; 22,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 29,99</t>
+          <t>1,85; 23,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 36,12</t>
+          <t>2,3; 22,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,36</t>
+          <t>4,17; 22,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 17,31</t>
+          <t>5,1; 27,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 17,98</t>
+          <t>2,03; 16,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 17,26</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 12,52</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 21,15</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 14,78</t>
+          <t>3,24; 22,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 15,68</t>
+          <t>2,1; 20,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 37,41</t>
+          <t>4,85; 51,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 21,6</t>
+          <t>5,69; 52,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,81</t>
+          <t>4,95; 22,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 18,27</t>
+          <t>4,99; 23,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 14,15</t>
+          <t>6,61; 25,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 14,42</t>
+          <t>9,42; 31,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 25,6</t>
+          <t>5,44; 18,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 17,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 37,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 41,97</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,81</t>
+          <t>3,08; 18,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 11,92</t>
+          <t>1,8; 16,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,46</t>
+          <t>3,15; 19,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 16,38</t>
+          <t>3,09; 17,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 15,83</t>
+          <t>4,66; 16,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 21,99</t>
+          <t>4,74; 15,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,23</t>
+          <t>9,03; 24,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,86</t>
+          <t>11,05; 26,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,34</t>
+          <t>5,5; 14,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 13,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,32; 19,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 19,47</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 16,1</t>
+          <t>5,08; 18,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 18,11</t>
+          <t>6,34; 21,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 20,0</t>
+          <t>7,24; 22,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 27,95</t>
+          <t>11,99; 29,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 27,26</t>
+          <t>11,82; 27,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,04; 31,98</t>
+          <t>11,82; 26,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 20,51</t>
+          <t>15,72; 32,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 21,13</t>
+          <t>15,03; 31,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,91; 24,31</t>
+          <t>10,51; 20,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 21,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 24,51</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 27,94</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,78%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,67; 23,18</t>
+          <t>9,45; 27,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 17,57</t>
+          <t>5,56; 21,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 17,94</t>
+          <t>6,5; 24,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,11; 42,97</t>
+          <t>8,16; 25,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,96; 39,57</t>
+          <t>16,31; 40,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,47; 35,13</t>
+          <t>19,86; 45,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 30,8</t>
+          <t>14,86; 38,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,55; 26,13</t>
+          <t>23,51; 51,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 24,75</t>
+          <t>15,31; 30,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 27,55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 26,87</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,44; 34,58</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>25,01%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 17,46</t>
+          <t>4,97; 27,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 21,63</t>
+          <t>2,56; 22,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,57; 19,43</t>
+          <t>2,57; 21,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,12; 42,81</t>
+          <t>8,86; 33,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,26; 37,67</t>
+          <t>20,86; 50,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,74; 47,28</t>
+          <t>17,22; 47,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,96; 29,42</t>
+          <t>20,54; 52,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,29; 28,11</t>
+          <t>20,72; 60,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,14; 33,72</t>
+          <t>16,29; 35,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 32,47</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 35,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 45,93</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,51</t>
+          <t>7,59; 14,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,9</t>
+          <t>6,7; 13,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,63</t>
+          <t>7,76; 19,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,33</t>
+          <t>11,19; 25,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,54</t>
+          <t>13,36; 20,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,7</t>
+          <t>13,6; 20,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,67</t>
+          <t>16,52; 24,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 15,56</t>
+          <t>19,47; 30,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 17,67</t>
+          <t>11,83; 17,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 16,05</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 19,91</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 25,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12849</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11820</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13798</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20760</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15296</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18917</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13798</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33609</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 27072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3319; 32924</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2482; 31648</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2758; 27089</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5113; 28093</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7421; 39621</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4903; 38701</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6618; 38983</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5295; 31299</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17626; 61603</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16337</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11606</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30394</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48990</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20110</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15756</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17694</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29436</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36447</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27362</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>48088</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78426</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5343; 36830</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3004; 29684</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7485; 78967</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12949; 119395</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8176; 37613</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6319; 30204</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8349; 32255</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15295; 51691</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17947; 59919</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14455; 48296</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22886; 105622</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39302; 163730</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13866</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9785</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13083</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14448</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25123</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19442</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30666</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42539</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38988</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29227</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43748</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>56987</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4985; 29506</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2425; 21917</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4336; 26985</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5563; 31030</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12319; 43227</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9917; 32598</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17948; 47841</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26498; 64539</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23424; 62734</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16767; 47322</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27988; 65039</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35042; 81754</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19164</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19168</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>20922</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>39461</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41612</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34575</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39452</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49619</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60776</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53742</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>60375</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>89080</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9493; 35291</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10225; 34115</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11307; 34684</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24142; 60037</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25807; 60411</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21968; 49765</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26543; 55053</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31971; 68051</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>42569; 84520</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36188; 74917</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42901; 79658</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>65155; 115721</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26989</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16212</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18629</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24447</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>31507</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>29874</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23059</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>50743</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>58495</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>46086</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>41688</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>75191</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14626; 42208</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7345; 28361</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8013; 30465</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12612; 40062</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18572; 46508</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18632; 42267</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13771; 35925</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>32228; 70736</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>41123; 82669</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>30757; 62235</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26987; 58001</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>53780; 100868</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15029</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8862</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8447</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>25528</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>46717</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>31724</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>39543</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>75603</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>61746</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>40585</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>47990</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>101132</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5436; 30183</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2238; 19889</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2313; 19537</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12211; 46583</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>28709; 69557</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>18101; 50323</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22722; 57641</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>43676; 127155</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>40229; 87549</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26126; 62486</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29925; 70354</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>61430; 160149</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>94858</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>73575</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>91475</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>165723</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>176890</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>142344</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>164212</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>268700</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>271748</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>215919</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>255687</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>434423</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>67161; 127367</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>51194; 102857</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>61200; 154147</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>117181; 263856</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>137971; 214981</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>114395; 174873</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>135421; 198299</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>215732; 338318</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>226942; 332051</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>178270; 257679</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>211711; 320239</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>356863; 540727</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>